--- a/po_analysis_by_asin/B0CW286XRZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW286XRZ_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>102</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>68</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>14</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>8</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>22</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>106</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>78</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>44</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>

--- a/po_analysis_by_asin/B0CW286XRZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW286XRZ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -597,7 +598,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -663,6 +664,369 @@
       </c>
       <c r="B9" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.647613261870044</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66.54810955440122</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.55162465506946</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.83365000431347</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.409602393098049</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.76934435490998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.680457288908126</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.2262730941695</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-13.59076290354936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.85647201316866</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-17.01972985064119</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.26429499121329</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-16.26812035281074</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.11857018321028</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-17.16419910156114</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.43437717821867</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-17.90151737256482</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48.9517819764591</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-20.35942035732005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>48.03478196263231</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-22.63266545524574</v>
+      </c>
+      <c r="D12" t="n">
+        <v>46.05938507686926</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-24.53698153287244</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39.23206014624527</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-26.14506875083705</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40.84174249848795</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-27.10269197962714</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40.98937165866118</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-30.15188755862124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>37.95374650962286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-28.26265200670499</v>
+      </c>
+      <c r="D17" t="n">
+        <v>37.33349580052481</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-32.72800476818869</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35.48234424124013</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-29.27618046293266</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37.86092498992465</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-32.47663317836107</v>
+      </c>
+      <c r="D20" t="n">
+        <v>34.01282007526821</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-35.53825343871706</v>
+      </c>
+      <c r="D21" t="n">
+        <v>32.71416625148449</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-36.57664830248579</v>
+      </c>
+      <c r="D22" t="n">
+        <v>34.72689612698971</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-33.15363903374651</v>
+      </c>
+      <c r="D23" t="n">
+        <v>29.380806677137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-34.9826439055968</v>
+      </c>
+      <c r="D24" t="n">
+        <v>32.22509418173549</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CW286XRZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW286XRZ_po_data.xlsx
@@ -677,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,16 +696,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -714,12 +704,6 @@
       <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
-        <v>-3.647613261870044</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66.54810955440122</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -728,12 +712,6 @@
       <c r="B3" t="n">
         <v>31</v>
       </c>
-      <c r="C3" t="n">
-        <v>-2.55162465506946</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.83365000431347</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -742,12 +720,6 @@
       <c r="B4" t="n">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
-        <v>-4.409602393098049</v>
-      </c>
-      <c r="D4" t="n">
-        <v>61.76934435490998</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -756,12 +728,6 @@
       <c r="B5" t="n">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
-        <v>-4.680457288908126</v>
-      </c>
-      <c r="D5" t="n">
-        <v>59.2262730941695</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -770,12 +736,6 @@
       <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="n">
-        <v>-13.59076290354936</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53.85647201316866</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -784,12 +744,6 @@
       <c r="B7" t="n">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
-        <v>-17.01972985064119</v>
-      </c>
-      <c r="D7" t="n">
-        <v>52.26429499121329</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -798,12 +752,6 @@
       <c r="B8" t="n">
         <v>18</v>
       </c>
-      <c r="C8" t="n">
-        <v>-16.26812035281074</v>
-      </c>
-      <c r="D8" t="n">
-        <v>52.11857018321028</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -812,12 +760,6 @@
       <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
-        <v>-17.16419910156114</v>
-      </c>
-      <c r="D9" t="n">
-        <v>49.43437717821867</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -826,12 +768,6 @@
       <c r="B10" t="n">
         <v>16</v>
       </c>
-      <c r="C10" t="n">
-        <v>-17.90151737256482</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48.9517819764591</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -840,12 +776,6 @@
       <c r="B11" t="n">
         <v>13</v>
       </c>
-      <c r="C11" t="n">
-        <v>-20.35942035732005</v>
-      </c>
-      <c r="D11" t="n">
-        <v>48.03478196263231</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -854,12 +784,6 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>-22.63266545524574</v>
-      </c>
-      <c r="D12" t="n">
-        <v>46.05938507686926</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -868,12 +792,6 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
-        <v>-24.53698153287244</v>
-      </c>
-      <c r="D13" t="n">
-        <v>39.23206014624527</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -882,12 +800,6 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>-26.14506875083705</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40.84174249848795</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -896,12 +808,6 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>-27.10269197962714</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40.98937165866118</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -910,12 +816,6 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>-30.15188755862124</v>
-      </c>
-      <c r="D16" t="n">
-        <v>37.95374650962286</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -924,12 +824,6 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>-28.26265200670499</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37.33349580052481</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -938,12 +832,6 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" t="n">
-        <v>-32.72800476818869</v>
-      </c>
-      <c r="D18" t="n">
-        <v>35.48234424124013</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -952,12 +840,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>-29.27618046293266</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37.86092498992465</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -966,12 +848,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>-32.47663317836107</v>
-      </c>
-      <c r="D20" t="n">
-        <v>34.01282007526821</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -980,12 +856,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>-35.53825343871706</v>
-      </c>
-      <c r="D21" t="n">
-        <v>32.71416625148449</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -994,12 +864,6 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>-36.57664830248579</v>
-      </c>
-      <c r="D22" t="n">
-        <v>34.72689612698971</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1008,12 +872,6 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>-33.15363903374651</v>
-      </c>
-      <c r="D23" t="n">
-        <v>29.380806677137</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1021,12 +879,6 @@
       </c>
       <c r="B24" t="n">
         <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-34.9826439055968</v>
-      </c>
-      <c r="D24" t="n">
-        <v>32.22509418173549</v>
       </c>
     </row>
   </sheetData>
